--- a/9/Книгга1.xlsx
+++ b/9/Книгга1.xlsx
@@ -162,18 +162,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,6 +177,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,204 +505,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>36.4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>45.2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>33</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>39</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <f>SUM(B6:E6)</f>
         <v>153.6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>4215.6000000000004</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <f>G6/F6</f>
         <v>27.445312500000004</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <f>H6/(1+$B$2/100)</f>
         <v>23.258739406779664</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>39</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>39</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>36.5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>33</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <f t="shared" ref="F7:F9" si="0">SUM(B7:E7)</f>
         <v>147.5</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>4301.3999999999996</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <f t="shared" ref="H7:H9" si="1">G7/F7</f>
         <v>29.162033898305083</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <f t="shared" ref="I7:I9" si="2">H7/(1+$B$2/100)</f>
         <v>24.71358804941109</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>45.2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>45</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>62</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>39</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>191.2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>4065.9</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>21.265167364016737</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <f t="shared" si="2"/>
         <v>18.021328274590456</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>33</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>39</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>39</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>36.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>147.5</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>4125.7</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>27.970847457627116</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <f t="shared" si="2"/>
         <v>23.704108014938235</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <f>AVERAGE(H6:H9)</f>
         <v>26.460840304987233</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <f>AVERAGE(I6:I9)</f>
         <v>22.42444093642986</v>
       </c>
